--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value852.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value852.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8665643917461332</v>
+        <v>0.7008573412895203</v>
       </c>
       <c r="B1">
-        <v>1.808279563228525</v>
+        <v>1.132298588752747</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.882263660430908</v>
       </c>
       <c r="D1">
-        <v>2.093535637476115</v>
+        <v>3.3177330493927</v>
       </c>
       <c r="E1">
-        <v>1.357898593057586</v>
+        <v>1.790637254714966</v>
       </c>
     </row>
   </sheetData>
